--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 10361-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 10361-2023.xlsx", "A 10361-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 10361-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 10361-2023.png", "A 10361-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 10361-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 10361-2023.docx", "A 10361-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 10361-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 10361-2023.docx", "A 10361-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 10361-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 10361-2023.docx", "A 10361-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 10361-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 10361-2023.docx", "A 10361-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 54233-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 54233-2020.xlsx", "A 54233-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 54233-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 54233-2020.png", "A 54233-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 54233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 54233-2020.docx", "A 54233-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 54233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 54233-2020.docx", "A 54233-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 54233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 54233-2020.docx", "A 54233-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 54233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 54233-2020.docx", "A 54233-2020")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 34130-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 34130-2022.xlsx", "A 34130-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 34130-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 34130-2022.png", "A 34130-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 34130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 34130-2022.docx", "A 34130-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 34130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 34130-2022.docx", "A 34130-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 34130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 34130-2022.docx", "A 34130-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 34130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 34130-2022.docx", "A 34130-2022")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,31 +891,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 11575-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 11575-2023.xlsx", "A 11575-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 11575-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 11575-2023.png", "A 11575-2023")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 11575-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 11575-2023.png", "A 11575-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 11575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 11575-2023.docx", "A 11575-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 11575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 11575-2023.docx", "A 11575-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 11575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 11575-2023.docx", "A 11575-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 11575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 11575-2023.docx", "A 11575-2023")</f>
         <v/>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,31 +981,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 4736-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 4736-2020.xlsx", "A 4736-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 4736-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 4736-2020.png", "A 4736-2020")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 4736-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 4736-2020.png", "A 4736-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 4736-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 4736-2020.docx", "A 4736-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 4736-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 4736-2020.docx", "A 4736-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 4736-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 4736-2020.docx", "A 4736-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 4736-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 4736-2020.docx", "A 4736-2020")</f>
         <v/>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,31 +1071,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 51691-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 51691-2022.xlsx", "A 51691-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 51691-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 51691-2022.png", "A 51691-2022")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 51691-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 51691-2022.png", "A 51691-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 51691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 51691-2022.docx", "A 51691-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 51691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 51691-2022.docx", "A 51691-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 51691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 51691-2022.docx", "A 51691-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 51691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 51691-2022.docx", "A 51691-2022")</f>
         <v/>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,31 +1160,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 37459-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 37459-2018.xlsx", "A 37459-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 37459-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 37459-2018.png", "A 37459-2018")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 37459-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 37459-2018.png", "A 37459-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 37459-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 37459-2018.docx", "A 37459-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 37459-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 37459-2018.docx", "A 37459-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 37459-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 37459-2018.docx", "A 37459-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 37459-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 37459-2018.docx", "A 37459-2018")</f>
         <v/>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1249,27 +1249,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 54429-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 54429-2018.xlsx", "A 54429-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 54429-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 54429-2018.png", "A 54429-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 54429-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 54429-2018.docx", "A 54429-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 54429-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 54429-2018.docx", "A 54429-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 54429-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 54429-2018.docx", "A 54429-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 54429-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 54429-2018.docx", "A 54429-2018")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1339,27 +1339,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 64794-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 64794-2018.xlsx", "A 64794-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 64794-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 64794-2018.png", "A 64794-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 64794-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 64794-2018.docx", "A 64794-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 64794-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 64794-2018.docx", "A 64794-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 64794-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 64794-2018.docx", "A 64794-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 64794-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 64794-2018.docx", "A 64794-2018")</f>
         <v/>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,27 +1424,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 69243-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 69243-2018.xlsx", "A 69243-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 69243-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 69243-2018.png", "A 69243-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 69243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 69243-2018.docx", "A 69243-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 69243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 69243-2018.docx", "A 69243-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 69243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 69243-2018.docx", "A 69243-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 69243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 69243-2018.docx", "A 69243-2018")</f>
         <v/>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,27 +1509,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 22170-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 22170-2019.xlsx", "A 22170-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 22170-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 22170-2019.png", "A 22170-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 22170-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 22170-2019.docx", "A 22170-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 22170-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 22170-2019.docx", "A 22170-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 22170-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 22170-2019.docx", "A 22170-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 22170-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 22170-2019.docx", "A 22170-2019")</f>
         <v/>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1594,27 +1594,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 4022-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 4022-2020.xlsx", "A 4022-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 4022-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 4022-2020.png", "A 4022-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 4022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 4022-2020.docx", "A 4022-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 4022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 4022-2020.docx", "A 4022-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 4022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 4022-2020.docx", "A 4022-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 4022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 4022-2020.docx", "A 4022-2020")</f>
         <v/>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,27 +1679,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 13774-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 13774-2020.xlsx", "A 13774-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 13774-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 13774-2020.png", "A 13774-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 13774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 13774-2020.docx", "A 13774-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 13774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 13774-2020.docx", "A 13774-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 13774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 13774-2020.docx", "A 13774-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 13774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 13774-2020.docx", "A 13774-2020")</f>
         <v/>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1764,27 +1764,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 47090-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 47090-2020.xlsx", "A 47090-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 47090-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 47090-2020.png", "A 47090-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 47090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 47090-2020.docx", "A 47090-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 47090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 47090-2020.docx", "A 47090-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 47090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 47090-2020.docx", "A 47090-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 47090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 47090-2020.docx", "A 47090-2020")</f>
         <v/>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1849,27 +1849,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 58629-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 58629-2021.xlsx", "A 58629-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 58629-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 58629-2021.png", "A 58629-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 58629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 58629-2021.docx", "A 58629-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 58629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 58629-2021.docx", "A 58629-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 58629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 58629-2021.docx", "A 58629-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 58629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 58629-2021.docx", "A 58629-2021")</f>
         <v/>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1934,27 +1934,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 43291-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 43291-2022.xlsx", "A 43291-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 43291-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 43291-2022.png", "A 43291-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 43291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 43291-2022.docx", "A 43291-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 43291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 43291-2022.docx", "A 43291-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 43291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 43291-2022.docx", "A 43291-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 43291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 43291-2022.docx", "A 43291-2022")</f>
         <v/>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2024,27 +2024,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 55924-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 55924-2022.xlsx", "A 55924-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 55924-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 55924-2022.png", "A 55924-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 55924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 55924-2022.docx", "A 55924-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 55924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 55924-2022.docx", "A 55924-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 55924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 55924-2022.docx", "A 55924-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 55924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 55924-2022.docx", "A 55924-2022")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,27 +2109,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 9825-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/artfynd/A 9825-2023.xlsx", "A 9825-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 9825-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/kartor/A 9825-2023.png", "A 9825-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 9825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 9825-2023.docx", "A 9825-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 9825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 9825-2023.docx", "A 9825-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 9825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 9825-2023.docx", "A 9825-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 9825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 9825-2023.docx", "A 9825-2023")</f>
         <v/>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33599,23 +33599,23 @@
       </c>
       <c r="R567" s="2" t="inlineStr"/>
       <c r="U567">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 52770-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/knärot/A 52770-2020.png", "A 52770-2020")</f>
         <v/>
       </c>
       <c r="V567">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 52770-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomål/A 52770-2020.docx", "A 52770-2020")</f>
         <v/>
       </c>
       <c r="W567">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 52770-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/klagomålsmail/A 52770-2020.docx", "A 52770-2020")</f>
         <v/>
       </c>
       <c r="X567">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 52770-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsyn/A 52770-2020.docx", "A 52770-2020")</f>
         <v/>
       </c>
       <c r="Y567">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 52770-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TINGSRYD/tillsynsmail/A 52770-2020.docx", "A 52770-2020")</f>
         <v/>
       </c>
     </row>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43479</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>43482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43486</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43487</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43487</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43489</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43489</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43493</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43493</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43493</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43494</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43494</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43494</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43494</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43497</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43500</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43500</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43501</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43503</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43511</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43511</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43511</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43511</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43511</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43521</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43525</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43530</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43530</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43536</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43537</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43539</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43544</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43548</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43549</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43549</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43549</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43557</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43560</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43563</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43564</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43578</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43579</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43584</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>43587</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>43591</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43591</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43591</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43598</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43598</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43599</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43600</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43601</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43601</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>43601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43605</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>43606</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43608</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43614</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43616</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>43616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>43618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43618</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43618</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43618</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>43618</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>43618</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>43621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43627</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43627</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>43627</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>43627</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>43628</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>43629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>43630</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>43633</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>43633</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43634</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43634</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43634</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>43634</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>43634</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>43634</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43634</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43636</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43636</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43640</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43641</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43642</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43642</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43647</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43649</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43649</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43649</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43650</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43656</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43656</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43658</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43658</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43664</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43665</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43668</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43672</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43675</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>43675</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43675</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43676</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43677</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43678</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43679</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43682</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43683</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43683</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43685</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43686</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43686</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43686</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43687</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43689</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43689</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43689</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43689</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43689</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43689</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43689</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43690</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43690</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>43690</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43690</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43692</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43695</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43695</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43696</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43697</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43697</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43698</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43698</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>43698</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43699</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43699</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>43699</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>43706</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>43706</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>43712</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>43712</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>43713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>43713</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>43713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>43713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>43713</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>43713</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>43713</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>43713</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43713</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43714</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>43717</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>43717</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>43717</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>43718</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>43719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>43719</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>43719</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>43719</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43719</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>43720</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>43725</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>43726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>43727</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>43727</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>43727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43728</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43732</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43737</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>43738</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>43738</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>43739</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>43739</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43739</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>43740</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>43740</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>43745</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43747</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43747</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>43749</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>43751</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>43753</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>43754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>43759</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43763</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43763</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43769</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43774</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43775</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>43776</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>43776</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>43795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>43796</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>43796</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>43806</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>43806</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>43808</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>43809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>43822</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43825</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43832</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43838</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43843</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43843</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43853</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>43857</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>43857</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>43858</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>43859</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>43860</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>43864</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43866</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43866</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43867</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43867</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43868</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>43878</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>43881</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>43881</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>43885</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>43886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>43888</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>43892</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>43892</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>43894</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>43895</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>43896</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>43896</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>43899</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>43899</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>43899</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>43900</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>43900</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>43900</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>43902</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>43902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>43903</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>43903</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>43906</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>43907</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>43907</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>43907</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>43907</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>43908</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>43908</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>43909</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>43913</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>43913</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>43913</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>43915</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>43916</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>43916</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>43916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>43916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>43917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>43917</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43917</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43917</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>43917</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>43917</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>43917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43917</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43920</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43921</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43921</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43921</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43921</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43921</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>43923</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>43927</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>43928</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>43929</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43942</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>43948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>43955</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>43977</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>43979</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43979</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>43985</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>43990</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>43999</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>44000</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44000</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>44009</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44013</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44014</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44015</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44019</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44027</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44032</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44053</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44053</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44054</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44055</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44055</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44062</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44063</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44064</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44067</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>44068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44070</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44070</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44071</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44071</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44078</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44078</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44078</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44081</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>44082</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44082</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44083</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44089</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>44089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44089</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44090</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44091</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44091</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44095</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>44096</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44102</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>44102</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>44102</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>44102</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44110</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44110</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44110</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>44116</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44118</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44124</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>44124</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44125</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44126</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44134</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44134</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44139</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44140</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>44144</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44145</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44147</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44152</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44152</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44159</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44160</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44168</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44168</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44173</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44174</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44179</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44179</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44180</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44180</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44182</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44183</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44183</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44186</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44186</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44187</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44199</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44201</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44207</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>44209</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>44211</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>44218</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>44220</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>44223</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44229</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36251,7 +36251,7 @@
         <v>44229</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44236</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44238</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44238</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44239</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44242</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44245</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44245</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44250</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44258</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44258</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44265</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44272</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44272</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44285</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44292</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44298</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44298</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44301</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44301</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44302</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44312</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44313</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>44316</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44326</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>44326</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44332</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>44334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44340</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>44343</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44351</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44355</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44355</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44370</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44376</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>44376</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44391</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44407</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>44407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44412</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39059,7 +39059,7 @@
         <v>44414</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>44417</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>44417</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>44420</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44420</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44424</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44424</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44426</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44438</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44441</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44445</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44447</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44448</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
         <v>44448</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44452</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44454</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44455</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44460</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>44462</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>44463</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>44467</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44468</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44470</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44474</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40826,7 +40826,7 @@
         <v>44489</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40883,7 +40883,7 @@
         <v>44490</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44494</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>44495</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>44508</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>44511</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>44523</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>44524</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>44525</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41463,7 +41463,7 @@
         <v>44529</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41520,7 +41520,7 @@
         <v>44532</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41577,7 +41577,7 @@
         <v>44532</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41634,7 +41634,7 @@
         <v>44546</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41691,7 +41691,7 @@
         <v>44557</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44575</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>44575</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44578</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44582</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44586</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44596</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44602</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44606</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44607</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44608</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44609</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44620</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44620</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44624</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44627</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44634</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>44636</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>44644</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>44648</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>44673</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44676</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>44683</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>44685</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44685</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44685</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44690</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44690</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44698</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44698</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44705</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44713</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44722</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44728</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44728</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44729</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44731</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>44735</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44747</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44755</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>44756</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>44756</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>44756</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>44756</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44276,7 +44276,7 @@
         <v>44776</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44333,7 +44333,7 @@
         <v>44783</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44783</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44789</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44790</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44791</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44792</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>44792</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44795</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44795</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44803</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44803</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>44804</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>44804</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44804</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44806</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>44813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         <v>44813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44813</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45421,7 +45421,7 @@
         <v>44816</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>44817</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>44819</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>44820</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>44820</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45706,7 +45706,7 @@
         <v>44820</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45763,7 +45763,7 @@
         <v>44839</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>44852</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44865</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44867</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44868</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44875</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44875</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>44875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>44879</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>44879</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>44881</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>44883</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44895</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>44895</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44897</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>44900</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>44901</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>44901</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44904</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>44904</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44911</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44928</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44935</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>44936</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>44936</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44937</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44938</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44938</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44938</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>44939</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44942</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44945</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44949</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44950</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47706,7 +47706,7 @@
         <v>44950</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>44951</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>44952</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>44953</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>44963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>44964</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44965</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48105,7 +48105,7 @@
         <v>44965</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48162,7 +48162,7 @@
         <v>44967</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>44967</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44967</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44969</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44971</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44984</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44984</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44984</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>44984</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44984</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44987</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44988</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>44994</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>44995</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>44995</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>44998</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>44998</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45001</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45002</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45002</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45002</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45002</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45002</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45005</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45005</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45005</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45007</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49840,7 +49840,7 @@
         <v>45007</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49897,7 +49897,7 @@
         <v>45012</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45014</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45033</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45034</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45035</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50182,7 +50182,7 @@
         <v>45036</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45036</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>45040</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50353,7 +50353,7 @@
         <v>45049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>45051</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50467,7 +50467,7 @@
         <v>45051</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50524,7 +50524,7 @@
         <v>45061</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>45071</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45071</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45071</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45071</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45071</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45071</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45071</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45075</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45075</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51109,7 +51109,7 @@
         <v>45076</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45076</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>45078</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51290,7 +51290,7 @@
         <v>45078</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51347,7 +51347,7 @@
         <v>45081</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51404,7 +51404,7 @@
         <v>45082</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45082</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45082</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45085</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45091</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45091</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45093</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45093</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45093</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45097</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45097</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45097</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45097</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45097</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45103</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45103</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45107</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45117</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45117</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45117</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45117</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45117</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45117</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45128</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45138</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45139</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45139</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45145</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45146</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45152</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45152</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45152</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45152</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45154</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45160</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45167</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45168</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt TINGSRYD.xlsx
+++ b/Översikt TINGSRYD.xlsx
@@ -572,7 +572,7 @@
         <v>44980</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44126</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44791</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43390</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43431</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43585</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43857</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43903</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44096</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44834</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44984</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43314</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43336</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43343</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43343</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43343</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43346</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43346</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43357</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43361</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43392</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43411</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43431</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43440</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43446</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43468</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43476</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="